--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B8D9554-E6BA-41EC-9F2E-1613298AF8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4874D4-8560-4AA4-A234-AE88ACF407EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,75 @@
   </si>
   <si>
     <t>Z0021771A/CYLINDER HEAD (F)</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item number/</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Eng. chg. lvl.</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>Despatch</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Qty U.</t>
+  </si>
+  <si>
+    <t>Already</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>Pack.</t>
+  </si>
+  <si>
+    <t>stat.</t>
+  </si>
+  <si>
+    <t>Point of</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>ery notes</t>
+  </si>
+  <si>
+    <t>5611011632A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1126,7 @@
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44200</v>
       </c>
@@ -1079,7 +1148,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44200</v>
       </c>
@@ -1089,8 +1158,11 @@
       <c r="C3">
         <v>416</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44200</v>
       </c>
@@ -1100,8 +1172,47 @@
       <c r="C4">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44200</v>
       </c>
@@ -1111,8 +1222,32 @@
       <c r="C5">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44200</v>
       </c>
@@ -1122,8 +1257,38 @@
       <c r="C6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>280103078</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>160</v>
+      </c>
+      <c r="L6">
+        <v>160</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>5510002743</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44200</v>
       </c>
@@ -1133,9 +1298,38 @@
       <c r="C7">
         <v>760</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>280103078</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>160</v>
+      </c>
+      <c r="L7">
+        <v>160</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5510002756</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44201</v>
       </c>
@@ -1145,9 +1339,38 @@
       <c r="C8">
         <v>304</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>280103078</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>160</v>
+      </c>
+      <c r="L8">
+        <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5510002757</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44201</v>
       </c>
@@ -1157,9 +1380,38 @@
       <c r="C9">
         <v>304</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>280103078</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>204</v>
+      </c>
+      <c r="L9">
+        <v>180</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>5510003089</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44201</v>
       </c>
@@ -1169,9 +1421,38 @@
       <c r="C10">
         <v>300</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>280103078</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>888</v>
+      </c>
+      <c r="L10">
+        <v>432</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5510003265</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44201</v>
       </c>
@@ -1181,9 +1462,38 @@
       <c r="C11">
         <v>304</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>280103078</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>240</v>
+      </c>
+      <c r="L11">
+        <v>240</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5510002972</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44201</v>
       </c>
@@ -1193,9 +1503,38 @@
       <c r="C12">
         <v>100</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>280103078</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>5510002778</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44201</v>
       </c>
@@ -1205,9 +1544,38 @@
       <c r="C13">
         <v>40</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>280103078</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44204</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>600</v>
+      </c>
+      <c r="L13">
+        <v>200</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>5510003264</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44202</v>
       </c>
@@ -1217,8 +1585,9 @@
       <c r="C14">
         <v>304</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44202</v>
       </c>
@@ -1228,8 +1597,9 @@
       <c r="C15">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44202</v>
       </c>
@@ -1239,6 +1609,7 @@
       <c r="C16">
         <v>80</v>
       </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1307,81 +1678,217 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>160</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>152</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>252</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1056</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>984</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>304</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4874D4-8560-4AA4-A234-AE88ACF407EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65B485-5167-4F54-8D7E-28013E13537A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -75,73 +75,25 @@
     <t>Z0021771A/CYLINDER HEAD (F)</t>
   </si>
   <si>
-    <t>No.</t>
+    <t>5611011632A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
   <si>
-    <t>Item</t>
+    <t>5611011732A/CYLINDER BLOCK (R) RAW MATERIAL</t>
   </si>
   <si>
-    <t>Item number/</t>
+    <t>5611012532A/CYLINDER BLOCK (F) RAW MATERIAL</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>5611012633A/CYLINDER BLOCK (R) RAW MATERIAL</t>
   </si>
   <si>
-    <t>Eng. chg. lvl.</t>
+    <t>5611500802A/CYLINDER HEAD (R)</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>5611502001A/CYLINDER HEAD (R)</t>
   </si>
   <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>Despatch</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>Qty U.</t>
-  </si>
-  <si>
-    <t>Already</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>Pack.</t>
-  </si>
-  <si>
-    <t>stat.</t>
-  </si>
-  <si>
-    <t>Point of</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>ery notes</t>
-  </si>
-  <si>
-    <t>5611011632A/CYLINDER BLOCK (F) RAW MATERIAL</t>
+    <t>5612604900A/SHELL (R)</t>
   </si>
 </sst>
 </file>
@@ -795,6 +747,372 @@
         <a:xfrm>
           <a:off x="5562600" y="2819400"/>
           <a:ext cx="99060" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B1EDDD-BA19-40C1-8932-0A5C6EB75F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="4587240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98558E84-C7B5-49CA-A72D-721C5E664333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="4777740"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8227627A-9B57-48B2-973D-5C4A920C4DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="4968240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="ID_arrowimage13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC89614-6F8D-4459-99BD-80723150AD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="5158740"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="ID_arrowimage14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E61AC82-25BF-46CD-A08E-F5F92CBA3C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="5349240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DBE6FF-1D86-46B3-8FF6-9CCF98B66DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="5722620"/>
+          <a:ext cx="7620" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,10 +1432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1444,7 @@
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44200</v>
       </c>
@@ -1148,7 +1466,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44200</v>
       </c>
@@ -1158,11 +1476,8 @@
       <c r="C3">
         <v>416</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44200</v>
       </c>
@@ -1172,47 +1487,8 @@
       <c r="C4">
         <v>600</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44200</v>
       </c>
@@ -1222,32 +1498,8 @@
       <c r="C5">
         <v>600</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44200</v>
       </c>
@@ -1257,38 +1509,8 @@
       <c r="C6">
         <v>120</v>
       </c>
-      <c r="F6">
-        <v>280103078</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6">
-        <v>160</v>
-      </c>
-      <c r="L6">
-        <v>160</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>5510002743</v>
-      </c>
-      <c r="R6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44200</v>
       </c>
@@ -1298,38 +1520,8 @@
       <c r="C7">
         <v>760</v>
       </c>
-      <c r="F7">
-        <v>280103078</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>160</v>
-      </c>
-      <c r="L7">
-        <v>160</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5510002756</v>
-      </c>
-      <c r="R7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44201</v>
       </c>
@@ -1339,38 +1531,8 @@
       <c r="C8">
         <v>304</v>
       </c>
-      <c r="F8">
-        <v>280103078</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>160</v>
-      </c>
-      <c r="L8">
-        <v>160</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5510002757</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44201</v>
       </c>
@@ -1380,38 +1542,8 @@
       <c r="C9">
         <v>304</v>
       </c>
-      <c r="F9">
-        <v>280103078</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>204</v>
-      </c>
-      <c r="L9">
-        <v>180</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>5510003089</v>
-      </c>
-      <c r="R9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44201</v>
       </c>
@@ -1421,38 +1553,8 @@
       <c r="C10">
         <v>300</v>
       </c>
-      <c r="F10">
-        <v>280103078</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>888</v>
-      </c>
-      <c r="L10">
-        <v>432</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5510003265</v>
-      </c>
-      <c r="R10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44201</v>
       </c>
@@ -1462,38 +1564,8 @@
       <c r="C11">
         <v>304</v>
       </c>
-      <c r="F11">
-        <v>280103078</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>240</v>
-      </c>
-      <c r="L11">
-        <v>240</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5510002972</v>
-      </c>
-      <c r="R11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44201</v>
       </c>
@@ -1503,38 +1575,8 @@
       <c r="C12">
         <v>100</v>
       </c>
-      <c r="F12">
-        <v>280103078</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <v>200</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>5510002778</v>
-      </c>
-      <c r="R12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44201</v>
       </c>
@@ -1544,38 +1586,8 @@
       <c r="C13">
         <v>40</v>
       </c>
-      <c r="F13">
-        <v>280103078</v>
-      </c>
-      <c r="G13">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2">
-        <v>44204</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>600</v>
-      </c>
-      <c r="L13">
-        <v>200</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5510003264</v>
-      </c>
-      <c r="R13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44202</v>
       </c>
@@ -1585,9 +1597,8 @@
       <c r="C14">
         <v>304</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44202</v>
       </c>
@@ -1597,9 +1608,8 @@
       <c r="C15">
         <v>300</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44202</v>
       </c>
@@ -1609,7 +1619,6 @@
       <c r="C16">
         <v>80</v>
       </c>
-      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1781,7 +1790,7 @@
         <v>44205</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>160</v>
@@ -1865,126 +1874,438 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>160</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>160</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>160</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>160</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>160</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>96</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65B485-5167-4F54-8D7E-28013E13537A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E27B5B-2622-48D3-B077-7EE03234639D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -1434,8 +1434,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2303,105 +2303,265 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>240</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E27B5B-2622-48D3-B077-7EE03234639D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09093D40-6E31-4FD7-A859-C3A6A0402EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,78 @@
   </si>
   <si>
     <t>5612604900A/SHELL (R)</t>
+  </si>
+  <si>
+    <t>livery notes</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item number/</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Eng. chg. lvl.</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>Despatch</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Qty U.</t>
+  </si>
+  <si>
+    <t>Already</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>Pack.</t>
+  </si>
+  <si>
+    <t>stat.</t>
+  </si>
+  <si>
+    <t>Point of</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>5611019231A/CYLINDER BLOCK(F)RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>5611019330A/CYLINDER BLOCK(R)RAW MATERIAL</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,7 +2220,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44209</v>
       </c>
@@ -2158,8 +2230,11 @@
       <c r="C65">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44209</v>
       </c>
@@ -2169,8 +2244,47 @@
       <c r="C66">
         <v>280</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>36</v>
+      </c>
+      <c r="R66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44210</v>
       </c>
@@ -2180,8 +2294,32 @@
       <c r="C67">
         <v>512</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>37</v>
+      </c>
+      <c r="R67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44210</v>
       </c>
@@ -2191,8 +2329,38 @@
       <c r="C68">
         <v>140</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>280104739</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68">
+        <v>320</v>
+      </c>
+      <c r="L68">
+        <v>240</v>
+      </c>
+      <c r="M68" t="s">
+        <v>40</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>5510002746</v>
+      </c>
+      <c r="R68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44210</v>
       </c>
@@ -2202,8 +2370,38 @@
       <c r="C69">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>280104739</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I69" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69">
+        <v>160</v>
+      </c>
+      <c r="L69">
+        <v>160</v>
+      </c>
+      <c r="M69" t="s">
+        <v>40</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>5510002747</v>
+      </c>
+      <c r="R69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44210</v>
       </c>
@@ -2213,8 +2411,38 @@
       <c r="C70">
         <v>204</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>280104739</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70">
+        <v>160</v>
+      </c>
+      <c r="L70">
+        <v>160</v>
+      </c>
+      <c r="M70" t="s">
+        <v>40</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>5510002748</v>
+      </c>
+      <c r="R70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44210</v>
       </c>
@@ -2224,8 +2452,38 @@
       <c r="C71">
         <v>156</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>280104739</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>320</v>
+      </c>
+      <c r="L71">
+        <v>160</v>
+      </c>
+      <c r="M71" t="s">
+        <v>40</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>5510002757</v>
+      </c>
+      <c r="R71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44210</v>
       </c>
@@ -2235,8 +2493,38 @@
       <c r="C72">
         <v>272</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>280104739</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>360</v>
+      </c>
+      <c r="L72">
+        <v>280</v>
+      </c>
+      <c r="M72" t="s">
+        <v>40</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>5510003088</v>
+      </c>
+      <c r="R72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44210</v>
       </c>
@@ -2246,8 +2534,38 @@
       <c r="C73">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>280104739</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>600</v>
+      </c>
+      <c r="L73">
+        <v>240</v>
+      </c>
+      <c r="M73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>5510003089</v>
+      </c>
+      <c r="R73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44211</v>
       </c>
@@ -2257,8 +2575,38 @@
       <c r="C74">
         <v>176</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>280104739</v>
+      </c>
+      <c r="G74">
+        <v>7</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74">
+        <v>120</v>
+      </c>
+      <c r="L74">
+        <v>84</v>
+      </c>
+      <c r="M74" t="s">
+        <v>40</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>5510002774</v>
+      </c>
+      <c r="R74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44211</v>
       </c>
@@ -2268,8 +2616,38 @@
       <c r="C75">
         <v>324</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>280104739</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75">
+        <v>1008</v>
+      </c>
+      <c r="L75">
+        <v>984</v>
+      </c>
+      <c r="M75" t="s">
+        <v>40</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>5510003265</v>
+      </c>
+      <c r="R75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44211</v>
       </c>
@@ -2279,8 +2657,38 @@
       <c r="C76">
         <v>180</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>280104739</v>
+      </c>
+      <c r="G76">
+        <v>9</v>
+      </c>
+      <c r="H76" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>672</v>
+      </c>
+      <c r="L76">
+        <v>528</v>
+      </c>
+      <c r="M76" t="s">
+        <v>40</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>5510003266</v>
+      </c>
+      <c r="R76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44211</v>
       </c>
@@ -2290,8 +2698,38 @@
       <c r="C77">
         <v>256</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>280104739</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>272</v>
+      </c>
+      <c r="L77">
+        <v>160</v>
+      </c>
+      <c r="M77" t="s">
+        <v>40</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>5510002972</v>
+      </c>
+      <c r="R77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44211</v>
       </c>
@@ -2301,8 +2739,32 @@
       <c r="C78">
         <v>280</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>280104739</v>
+      </c>
+      <c r="G78">
+        <v>11</v>
+      </c>
+      <c r="H78" s="2">
+        <v>44215</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <v>280</v>
+      </c>
+      <c r="L78">
+        <v>200</v>
+      </c>
+      <c r="M78" t="s">
+        <v>40</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44212</v>
       </c>
@@ -2313,7 +2775,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44212</v>
       </c>
@@ -2523,37 +2985,125 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>240</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100">
+        <v>160</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101">
+        <v>160</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>160</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>280</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>240</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>84</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>984</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>528</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>160</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>200</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09093D40-6E31-4FD7-A859-C3A6A0402EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7BA6C4-2901-4722-82E4-6DAFFC567574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -94,72 +94,6 @@
   </si>
   <si>
     <t>5612604900A/SHELL (R)</t>
-  </si>
-  <si>
-    <t>livery notes</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Item number/</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Eng. chg. lvl.</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>Despatch</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>Qty U.</t>
-  </si>
-  <si>
-    <t>Already</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>Pack.</t>
-  </si>
-  <si>
-    <t>stat.</t>
-  </si>
-  <si>
-    <t>Point of</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>Each</t>
   </si>
   <si>
     <t>5611019231A/CYLINDER BLOCK(F)RAW MATERIAL</t>
@@ -1504,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,7 +2154,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44209</v>
       </c>
@@ -2230,11 +2164,8 @@
       <c r="C65">
         <v>40</v>
       </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44209</v>
       </c>
@@ -2244,47 +2175,8 @@
       <c r="C66">
         <v>280</v>
       </c>
-      <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" t="s">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" t="s">
-        <v>27</v>
-      </c>
-      <c r="M66" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" t="s">
-        <v>30</v>
-      </c>
-      <c r="O66" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>36</v>
-      </c>
-      <c r="R66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44210</v>
       </c>
@@ -2294,32 +2186,8 @@
       <c r="C67">
         <v>512</v>
       </c>
-      <c r="I67" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L67" t="s">
-        <v>28</v>
-      </c>
-      <c r="N67" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" t="s">
-        <v>33</v>
-      </c>
-      <c r="P67" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>37</v>
-      </c>
-      <c r="R67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44210</v>
       </c>
@@ -2329,38 +2197,8 @@
       <c r="C68">
         <v>140</v>
       </c>
-      <c r="F68">
-        <v>280104739</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68">
-        <v>320</v>
-      </c>
-      <c r="L68">
-        <v>240</v>
-      </c>
-      <c r="M68" t="s">
-        <v>40</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>5510002746</v>
-      </c>
-      <c r="R68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44210</v>
       </c>
@@ -2370,38 +2208,8 @@
       <c r="C69">
         <v>64</v>
       </c>
-      <c r="F69">
-        <v>280104739</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69">
-        <v>160</v>
-      </c>
-      <c r="L69">
-        <v>160</v>
-      </c>
-      <c r="M69" t="s">
-        <v>40</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>5510002747</v>
-      </c>
-      <c r="R69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44210</v>
       </c>
@@ -2411,38 +2219,8 @@
       <c r="C70">
         <v>204</v>
       </c>
-      <c r="F70">
-        <v>280104739</v>
-      </c>
-      <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="H70" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I70" t="s">
-        <v>42</v>
-      </c>
-      <c r="K70">
-        <v>160</v>
-      </c>
-      <c r="L70">
-        <v>160</v>
-      </c>
-      <c r="M70" t="s">
-        <v>40</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>5510002748</v>
-      </c>
-      <c r="R70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44210</v>
       </c>
@@ -2452,38 +2230,8 @@
       <c r="C71">
         <v>156</v>
       </c>
-      <c r="F71">
-        <v>280104739</v>
-      </c>
-      <c r="G71">
-        <v>4</v>
-      </c>
-      <c r="H71" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I71" t="s">
-        <v>5</v>
-      </c>
-      <c r="K71">
-        <v>320</v>
-      </c>
-      <c r="L71">
-        <v>160</v>
-      </c>
-      <c r="M71" t="s">
-        <v>40</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>5510002757</v>
-      </c>
-      <c r="R71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44210</v>
       </c>
@@ -2493,38 +2241,8 @@
       <c r="C72">
         <v>272</v>
       </c>
-      <c r="F72">
-        <v>280104739</v>
-      </c>
-      <c r="G72">
-        <v>5</v>
-      </c>
-      <c r="H72" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>360</v>
-      </c>
-      <c r="L72">
-        <v>280</v>
-      </c>
-      <c r="M72" t="s">
-        <v>40</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>5510003088</v>
-      </c>
-      <c r="R72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44210</v>
       </c>
@@ -2534,38 +2252,8 @@
       <c r="C73">
         <v>140</v>
       </c>
-      <c r="F73">
-        <v>280104739</v>
-      </c>
-      <c r="G73">
-        <v>6</v>
-      </c>
-      <c r="H73" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I73" t="s">
-        <v>2</v>
-      </c>
-      <c r="K73">
-        <v>600</v>
-      </c>
-      <c r="L73">
-        <v>240</v>
-      </c>
-      <c r="M73" t="s">
-        <v>40</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>5510003089</v>
-      </c>
-      <c r="R73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44211</v>
       </c>
@@ -2575,38 +2263,8 @@
       <c r="C74">
         <v>176</v>
       </c>
-      <c r="F74">
-        <v>280104739</v>
-      </c>
-      <c r="G74">
-        <v>7</v>
-      </c>
-      <c r="H74" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I74" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74">
-        <v>120</v>
-      </c>
-      <c r="L74">
-        <v>84</v>
-      </c>
-      <c r="M74" t="s">
-        <v>40</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>5510002774</v>
-      </c>
-      <c r="R74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44211</v>
       </c>
@@ -2616,38 +2274,8 @@
       <c r="C75">
         <v>324</v>
       </c>
-      <c r="F75">
-        <v>280104739</v>
-      </c>
-      <c r="G75">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I75" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75">
-        <v>1008</v>
-      </c>
-      <c r="L75">
-        <v>984</v>
-      </c>
-      <c r="M75" t="s">
-        <v>40</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>5510003265</v>
-      </c>
-      <c r="R75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44211</v>
       </c>
@@ -2657,38 +2285,8 @@
       <c r="C76">
         <v>180</v>
       </c>
-      <c r="F76">
-        <v>280104739</v>
-      </c>
-      <c r="G76">
-        <v>9</v>
-      </c>
-      <c r="H76" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I76" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76">
-        <v>672</v>
-      </c>
-      <c r="L76">
-        <v>528</v>
-      </c>
-      <c r="M76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>5510003266</v>
-      </c>
-      <c r="R76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44211</v>
       </c>
@@ -2698,38 +2296,8 @@
       <c r="C77">
         <v>256</v>
       </c>
-      <c r="F77">
-        <v>280104739</v>
-      </c>
-      <c r="G77">
-        <v>10</v>
-      </c>
-      <c r="H77" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I77" t="s">
-        <v>6</v>
-      </c>
-      <c r="K77">
-        <v>272</v>
-      </c>
-      <c r="L77">
-        <v>160</v>
-      </c>
-      <c r="M77" t="s">
-        <v>40</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>5510002972</v>
-      </c>
-      <c r="R77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44211</v>
       </c>
@@ -2739,32 +2307,8 @@
       <c r="C78">
         <v>280</v>
       </c>
-      <c r="F78">
-        <v>280104739</v>
-      </c>
-      <c r="G78">
-        <v>11</v>
-      </c>
-      <c r="H78" s="2">
-        <v>44215</v>
-      </c>
-      <c r="I78" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78">
-        <v>280</v>
-      </c>
-      <c r="L78">
-        <v>200</v>
-      </c>
-      <c r="M78" t="s">
-        <v>40</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44212</v>
       </c>
@@ -2775,7 +2319,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44212</v>
       </c>
@@ -2786,7 +2330,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44212</v>
       </c>
@@ -2797,7 +2341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44212</v>
       </c>
@@ -2808,7 +2352,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44212</v>
       </c>
@@ -2819,7 +2363,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44213</v>
       </c>
@@ -2830,7 +2374,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44213</v>
       </c>
@@ -2841,7 +2385,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44214</v>
       </c>
@@ -2852,7 +2396,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44214</v>
       </c>
@@ -2863,7 +2407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44214</v>
       </c>
@@ -2873,8 +2417,9 @@
       <c r="C88">
         <v>204</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44214</v>
       </c>
@@ -2884,8 +2429,9 @@
       <c r="C89">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44214</v>
       </c>
@@ -2895,8 +2441,9 @@
       <c r="C90">
         <v>336</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44214</v>
       </c>
@@ -2906,8 +2453,9 @@
       <c r="C91">
         <v>160</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44214</v>
       </c>
@@ -2917,8 +2465,9 @@
       <c r="C92">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44215</v>
       </c>
@@ -2928,8 +2477,9 @@
       <c r="C93">
         <v>160</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44215</v>
       </c>
@@ -2939,8 +2489,9 @@
       <c r="C94">
         <v>360</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44215</v>
       </c>
@@ -2950,8 +2501,9 @@
       <c r="C95">
         <v>276</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44215</v>
       </c>
@@ -2961,6 +2513,7 @@
       <c r="C96">
         <v>144</v>
       </c>
+      <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
@@ -3000,7 +2553,7 @@
         <v>44216</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C100">
         <v>160</v>
@@ -3011,7 +2564,7 @@
         <v>44216</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C101">
         <v>160</v>
@@ -3106,60 +2659,204 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>160</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>160</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7BA6C4-2901-4722-82E4-6DAFFC567574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C24D4-8A34-400E-8E4A-954CF2AB2B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>5611019330A/CYLINDER BLOCK(R)RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>Z0009112A/CYLINDER BLOCK (F) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Z0008549C/CYLINDER BLOCK (F) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Z0008551B/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Z0009115A/CYLINDER BLOCK (R) RAW MAT`L</t>
   </si>
 </sst>
 </file>
@@ -1438,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,7 +2342,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44212</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44212</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44212</v>
       </c>
@@ -2363,7 +2375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44213</v>
       </c>
@@ -2374,7 +2386,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44213</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44214</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44214</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44214</v>
       </c>
@@ -2417,9 +2429,8 @@
       <c r="C88">
         <v>204</v>
       </c>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44214</v>
       </c>
@@ -2429,9 +2440,8 @@
       <c r="C89">
         <v>120</v>
       </c>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44214</v>
       </c>
@@ -2441,9 +2451,8 @@
       <c r="C90">
         <v>336</v>
       </c>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44214</v>
       </c>
@@ -2453,9 +2462,8 @@
       <c r="C91">
         <v>160</v>
       </c>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44214</v>
       </c>
@@ -2465,9 +2473,8 @@
       <c r="C92">
         <v>180</v>
       </c>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44215</v>
       </c>
@@ -2477,9 +2484,8 @@
       <c r="C93">
         <v>160</v>
       </c>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44215</v>
       </c>
@@ -2489,9 +2495,8 @@
       <c r="C94">
         <v>360</v>
       </c>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44215</v>
       </c>
@@ -2501,9 +2506,8 @@
       <c r="C95">
         <v>276</v>
       </c>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44215</v>
       </c>
@@ -2513,7 +2517,6 @@
       <c r="C96">
         <v>144</v>
       </c>
-      <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
@@ -2857,102 +2860,318 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B154" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C24D4-8A34-400E-8E4A-954CF2AB2B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D63C9-60F3-446A-86C0-19D899B915C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -785,13 +785,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -846,13 +846,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -907,13 +907,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -968,13 +968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -1029,13 +1029,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -1090,13 +1090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -1452,8 +1452,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3157,51 +3157,123 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>160</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>160</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157">
+        <v>240</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158">
+        <v>240</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <v>280</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
     </row>
   </sheetData>

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D63C9-60F3-446A-86C0-19D899B915C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E7462A-65E1-49E0-9175-7D7F0F2B8D2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Z0009115A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>5612602102A/SHELL (R)</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3256,25 +3259,92 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>160</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>160</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>36</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>320</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>360</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169">
+        <v>120</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E7462A-65E1-49E0-9175-7D7F0F2B8D2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114E964F-9BF4-499A-A272-C2CD5BD38BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>5612602102A/SHELL (R)</t>
+  </si>
+  <si>
+    <t>Z0009680A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>Z0009775A/CYLINDER BLOCK (F) RAW MAT`L</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:A171"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K177" sqref="K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3346,6 +3352,116 @@
         <v>300</v>
       </c>
     </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deli_Jan_21.xlsx
+++ b/Deli_Jan_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114E964F-9BF4-499A-A272-C2CD5BD38BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5D2C13-D238-437A-A466-8727DEDA1205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -1459,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K177" sqref="K177"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D162" sqref="D1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3462,6 +3462,83 @@
         <v>300</v>
       </c>
     </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
